--- a/US2.0.xlsx
+++ b/US2.0.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Cumulative" sheetId="1" r:id="rId1"/>
     <sheet name="Cohort" sheetId="2" r:id="rId2"/>
+    <sheet name="Cohort Values" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>CohortPeriod</t>
   </si>
@@ -23,58 +24,61 @@
     <t>Ret_Pct</t>
   </si>
   <si>
-    <t>106.21%</t>
-  </si>
-  <si>
-    <t>9.81%</t>
-  </si>
-  <si>
-    <t>5.76%</t>
-  </si>
-  <si>
-    <t>3.81%</t>
-  </si>
-  <si>
-    <t>4.61%</t>
-  </si>
-  <si>
-    <t>3.15%</t>
-  </si>
-  <si>
-    <t>3.66%</t>
-  </si>
-  <si>
-    <t>2.48%</t>
-  </si>
-  <si>
-    <t>3.48%</t>
-  </si>
-  <si>
-    <t>3.32%</t>
-  </si>
-  <si>
-    <t>3.69%</t>
-  </si>
-  <si>
-    <t>2.74%</t>
-  </si>
-  <si>
-    <t>2.70%</t>
-  </si>
-  <si>
-    <t>3.54%</t>
-  </si>
-  <si>
-    <t>4.92%</t>
-  </si>
-  <si>
-    <t>2.31%</t>
-  </si>
-  <si>
-    <t>3.59%</t>
-  </si>
-  <si>
-    <t>9.09%</t>
+    <t>100.00%</t>
+  </si>
+  <si>
+    <t>13.43%</t>
+  </si>
+  <si>
+    <t>11.09%</t>
+  </si>
+  <si>
+    <t>9.43%</t>
+  </si>
+  <si>
+    <t>9.18%</t>
+  </si>
+  <si>
+    <t>7.34%</t>
+  </si>
+  <si>
+    <t>8.95%</t>
+  </si>
+  <si>
+    <t>6.44%</t>
+  </si>
+  <si>
+    <t>6.84%</t>
+  </si>
+  <si>
+    <t>6.75%</t>
+  </si>
+  <si>
+    <t>7.59%</t>
+  </si>
+  <si>
+    <t>7.08%</t>
+  </si>
+  <si>
+    <t>10.63%</t>
+  </si>
+  <si>
+    <t>7.14%</t>
+  </si>
+  <si>
+    <t>7.47%</t>
+  </si>
+  <si>
+    <t>6.34%</t>
+  </si>
+  <si>
+    <t>6.93%</t>
+  </si>
+  <si>
+    <t>6.11%</t>
+  </si>
+  <si>
+    <t>7.33%</t>
   </si>
   <si>
     <t>2020-01</t>
@@ -132,6 +136,9 @@
   </si>
   <si>
     <t>2021-07</t>
+  </si>
+  <si>
+    <t>CohortGroup</t>
   </si>
 </sst>
 </file>
@@ -489,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -701,6 +708,17 @@
         <v>19</v>
       </c>
     </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -708,7 +726,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -719,61 +737,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -843,58 +861,58 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.04545454545454546</v>
+        <v>0.2490842490842491</v>
       </c>
       <c r="C3">
-        <v>0.04424778761061947</v>
+        <v>0.1583629893238434</v>
       </c>
       <c r="D3">
-        <v>0.0625</v>
+        <v>0.09711538461538462</v>
       </c>
       <c r="E3">
-        <v>0.1129032258064516</v>
+        <v>0.2053200332502078</v>
       </c>
       <c r="F3">
-        <v>0.1390134529147982</v>
+        <v>0.1209027404621171</v>
       </c>
       <c r="G3">
-        <v>0.09359605911330049</v>
+        <v>0.1962732919254658</v>
       </c>
       <c r="H3">
-        <v>0.07738095238095238</v>
+        <v>0.1075514874141876</v>
       </c>
       <c r="I3">
-        <v>0.03389830508474576</v>
+        <v>0.1007751937984496</v>
       </c>
       <c r="J3">
-        <v>0.03968253968253968</v>
+        <v>0.07968749999999999</v>
       </c>
       <c r="K3">
-        <v>0.09722222222222222</v>
+        <v>0.1814285714285714</v>
       </c>
       <c r="L3">
-        <v>0.2623762376237624</v>
+        <v>0.1030871003307608</v>
       </c>
       <c r="M3">
-        <v>0.06363636363636363</v>
+        <v>0.1369294605809129</v>
       </c>
       <c r="N3">
-        <v>0.1111111111111111</v>
+        <v>0.1503267973856209</v>
       </c>
       <c r="O3">
-        <v>0.09166666666666666</v>
+        <v>0.1917808219178082</v>
       </c>
       <c r="P3">
-        <v>0.05917159763313609</v>
+        <v>0.1</v>
       </c>
       <c r="Q3">
-        <v>0.03846153846153846</v>
+        <v>0.1518438177874187</v>
       </c>
       <c r="R3">
-        <v>0.08080808080808081</v>
+        <v>0.09444444444444444</v>
       </c>
       <c r="S3">
-        <v>0.1230769230769231</v>
+        <v>0.08047690014903129</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -902,55 +920,55 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.05454545454545454</v>
+        <v>0.2087912087912088</v>
       </c>
       <c r="C4">
-        <v>0.07079646017699115</v>
+        <v>0.09608540925266904</v>
       </c>
       <c r="D4">
-        <v>0.1</v>
+        <v>0.1413461538461538</v>
       </c>
       <c r="E4">
-        <v>0.03225806451612903</v>
+        <v>0.09642560266001662</v>
       </c>
       <c r="F4">
-        <v>0.06278026905829596</v>
+        <v>0.1278882321332617</v>
       </c>
       <c r="G4">
-        <v>0.06403940886699508</v>
+        <v>0.1018633540372671</v>
       </c>
       <c r="H4">
-        <v>0.06547619047619048</v>
+        <v>0.08009153318077804</v>
       </c>
       <c r="I4">
-        <v>0.05084745762711865</v>
+        <v>0.09819121447028424</v>
       </c>
       <c r="J4">
-        <v>0.07142857142857142</v>
+        <v>0.1546875</v>
       </c>
       <c r="K4">
-        <v>0.03472222222222222</v>
+        <v>0.04857142857142857</v>
       </c>
       <c r="L4">
-        <v>0.02475247524752475</v>
+        <v>0.05678059536934951</v>
       </c>
       <c r="M4">
-        <v>0.01818181818181818</v>
+        <v>0.06224066390041494</v>
       </c>
       <c r="N4">
-        <v>0.08888888888888889</v>
+        <v>0.2209150326797386</v>
       </c>
       <c r="O4">
-        <v>0.04166666666666666</v>
+        <v>0.1232876712328767</v>
       </c>
       <c r="P4">
-        <v>0.0650887573964497</v>
+        <v>0.1439560439560439</v>
       </c>
       <c r="Q4">
-        <v>0.04807692307692308</v>
+        <v>0.0911062906724512</v>
       </c>
       <c r="R4">
-        <v>0.0707070707070707</v>
+        <v>0.07361111111111111</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -958,52 +976,52 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.04545454545454546</v>
+        <v>0.2014652014652015</v>
       </c>
       <c r="C5">
-        <v>0.07079646017699115</v>
+        <v>0.1921708185053381</v>
       </c>
       <c r="D5">
-        <v>0.025</v>
+        <v>0.08461538461538462</v>
       </c>
       <c r="E5">
-        <v>0.04032258064516129</v>
+        <v>0.07813798836242726</v>
       </c>
       <c r="F5">
-        <v>0.01345291479820628</v>
+        <v>0.08113917248790972</v>
       </c>
       <c r="G5">
-        <v>0.03940886699507389</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="H5">
-        <v>0.04166666666666666</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="I5">
-        <v>0.09322033898305085</v>
+        <v>0.165374677002584</v>
       </c>
       <c r="J5">
-        <v>0.02380952380952381</v>
+        <v>0.053125</v>
       </c>
       <c r="K5">
-        <v>0.02777777777777778</v>
+        <v>0.05428571428571428</v>
       </c>
       <c r="L5">
-        <v>0.0198019801980198</v>
+        <v>0.06449834619625137</v>
       </c>
       <c r="M5">
-        <v>0.05454545454545454</v>
+        <v>0.1120331950207469</v>
       </c>
       <c r="N5">
-        <v>0.02222222222222222</v>
+        <v>0.134640522875817</v>
       </c>
       <c r="O5">
-        <v>0.025</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="P5">
-        <v>0.02958579881656805</v>
+        <v>0.1032967032967033</v>
       </c>
       <c r="Q5">
-        <v>0.03846153846153846</v>
+        <v>0.06290672451193059</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1011,49 +1029,49 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.09090909090909091</v>
+        <v>0.271062271062271</v>
       </c>
       <c r="C6">
-        <v>0.04424778761061947</v>
+        <v>0.1120996441281139</v>
       </c>
       <c r="D6">
-        <v>0.0375</v>
+        <v>0.09423076923076923</v>
       </c>
       <c r="E6">
-        <v>0.04032258064516129</v>
+        <v>0.06317539484621779</v>
       </c>
       <c r="F6">
-        <v>0.05381165919282511</v>
+        <v>0.06286942504030091</v>
       </c>
       <c r="G6">
-        <v>0.04926108374384237</v>
+        <v>0.07329192546583851</v>
       </c>
       <c r="H6">
-        <v>0.07738095238095238</v>
+        <v>0.1624713958810069</v>
       </c>
       <c r="I6">
-        <v>0.03389830508474576</v>
+        <v>0.05426356589147287</v>
       </c>
       <c r="J6">
-        <v>0.02380952380952381</v>
+        <v>0.065625</v>
       </c>
       <c r="K6">
-        <v>0.03472222222222222</v>
+        <v>0.05285714285714286</v>
       </c>
       <c r="L6">
-        <v>0.03465346534653466</v>
+        <v>0.1141124586549063</v>
       </c>
       <c r="M6">
-        <v>0.01818181818181818</v>
+        <v>0.06224066390041494</v>
       </c>
       <c r="N6">
-        <v>0.05555555555555555</v>
+        <v>0.1464052287581699</v>
       </c>
       <c r="O6">
-        <v>0.01666666666666667</v>
+        <v>0.09178082191780822</v>
       </c>
       <c r="P6">
-        <v>0.01775147928994083</v>
+        <v>0.08461538461538462</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1061,46 +1079,46 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.07272727272727272</v>
+        <v>0.1391941391941392</v>
       </c>
       <c r="C7">
-        <v>0.03539823008849557</v>
+        <v>0.1138790035587189</v>
       </c>
       <c r="D7">
-        <v>0.0375</v>
+        <v>0.06826923076923076</v>
       </c>
       <c r="E7">
-        <v>0.01612903225806452</v>
+        <v>0.07398171238570241</v>
       </c>
       <c r="F7">
-        <v>0.02242152466367713</v>
+        <v>0.05212251477700161</v>
       </c>
       <c r="G7">
-        <v>0.03448275862068965</v>
+        <v>0.1577639751552795</v>
       </c>
       <c r="H7">
-        <v>0.02380952380952381</v>
+        <v>0.02288329519450801</v>
       </c>
       <c r="I7">
-        <v>0.02542372881355932</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="J7">
-        <v>0.03968253968253968</v>
+        <v>0.059375</v>
       </c>
       <c r="K7">
-        <v>0.02777777777777778</v>
+        <v>0.07428571428571429</v>
       </c>
       <c r="L7">
-        <v>0.004950495049504951</v>
+        <v>0.04079382579933848</v>
       </c>
       <c r="M7">
-        <v>0.01818181818181818</v>
+        <v>0.0912863070539419</v>
       </c>
       <c r="N7">
-        <v>0.06666666666666667</v>
+        <v>0.09934640522875816</v>
       </c>
       <c r="O7">
-        <v>0.025</v>
+        <v>0.08904109589041095</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1108,43 +1126,43 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.05454545454545454</v>
+        <v>0.1611721611721612</v>
       </c>
       <c r="C8">
-        <v>0.02654867256637168</v>
+        <v>0.099644128113879</v>
       </c>
       <c r="D8">
-        <v>0.05</v>
+        <v>0.07211538461538461</v>
       </c>
       <c r="E8">
-        <v>0.02419354838709677</v>
+        <v>0.06650041562759768</v>
       </c>
       <c r="F8">
-        <v>0.07623318385650224</v>
+        <v>0.1520687802256851</v>
       </c>
       <c r="G8">
-        <v>0.02463054187192118</v>
+        <v>0.04596273291925466</v>
       </c>
       <c r="H8">
-        <v>0.04761904761904762</v>
+        <v>0.06407322654462243</v>
       </c>
       <c r="I8">
-        <v>0.0423728813559322</v>
+        <v>0.07493540051679587</v>
       </c>
       <c r="J8">
-        <v>0.02380952380952381</v>
+        <v>0.06875000000000001</v>
       </c>
       <c r="K8">
-        <v>0.01388888888888889</v>
+        <v>0.04142857142857143</v>
       </c>
       <c r="L8">
-        <v>0.01485148514851485</v>
+        <v>0.08930540242557883</v>
       </c>
       <c r="M8">
-        <v>0.00909090909090909</v>
+        <v>0.05809128630705394</v>
       </c>
       <c r="N8">
-        <v>0.03333333333333333</v>
+        <v>0.1032679738562091</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1152,40 +1170,40 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.03636363636363636</v>
+        <v>0.1318681318681319</v>
       </c>
       <c r="C9">
-        <v>0.01769911504424779</v>
+        <v>0.09074733096085409</v>
       </c>
       <c r="D9">
-        <v>0.05</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="E9">
-        <v>0.04838709677419355</v>
+        <v>0.1612635078969244</v>
       </c>
       <c r="F9">
-        <v>0.008968609865470852</v>
+        <v>0.02740462117141322</v>
       </c>
       <c r="G9">
-        <v>0.01477832512315271</v>
+        <v>0.04720496894409938</v>
       </c>
       <c r="H9">
-        <v>0.01785714285714286</v>
+        <v>0.05720823798627003</v>
       </c>
       <c r="I9">
-        <v>0.0423728813559322</v>
+        <v>0.08785529715762273</v>
       </c>
       <c r="J9">
-        <v>0.02380952380952381</v>
+        <v>0.0328125</v>
       </c>
       <c r="K9">
-        <v>0.02777777777777778</v>
+        <v>0.06857142857142857</v>
       </c>
       <c r="L9">
-        <v>0.004950495049504951</v>
+        <v>0.03693495038588754</v>
       </c>
       <c r="M9">
-        <v>0.02727272727272727</v>
+        <v>0.05394190871369295</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1193,37 +1211,37 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.06363636363636363</v>
+        <v>0.1245421245421245</v>
       </c>
       <c r="C10">
-        <v>0.03539823008849557</v>
+        <v>0.099644128113879</v>
       </c>
       <c r="D10">
-        <v>0.075</v>
+        <v>0.1701923076923077</v>
       </c>
       <c r="E10">
-        <v>0.04032258064516129</v>
+        <v>0.02992518703241895</v>
       </c>
       <c r="F10">
-        <v>0.01345291479820628</v>
+        <v>0.05104782375067168</v>
       </c>
       <c r="G10">
-        <v>0.02463054187192118</v>
+        <v>0.07453416149068323</v>
       </c>
       <c r="H10">
-        <v>0.05357142857142857</v>
+        <v>0.08237986270022883</v>
       </c>
       <c r="I10">
-        <v>0.008474576271186441</v>
+        <v>0.04392764857881137</v>
       </c>
       <c r="J10">
-        <v>0.01587301587301587</v>
+        <v>0.07187499999999999</v>
       </c>
       <c r="K10">
-        <v>0.01388888888888889</v>
+        <v>0.04428571428571428</v>
       </c>
       <c r="L10">
-        <v>0.02475247524752475</v>
+        <v>0.04244762954796031</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1231,34 +1249,34 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.03636363636363636</v>
+        <v>0.1575091575091575</v>
       </c>
       <c r="C11">
-        <v>0.06194690265486726</v>
+        <v>0.2206405693950178</v>
       </c>
       <c r="D11">
-        <v>0.025</v>
+        <v>0.02692307692307692</v>
       </c>
       <c r="E11">
-        <v>0.02419354838709677</v>
+        <v>0.05569409808811305</v>
       </c>
       <c r="F11">
-        <v>0.03139013452914798</v>
+        <v>0.05534658785599141</v>
       </c>
       <c r="G11">
-        <v>0.0541871921182266</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="H11">
-        <v>0.02380952380952381</v>
+        <v>0.04576659038901602</v>
       </c>
       <c r="I11">
-        <v>0.01694915254237288</v>
+        <v>0.06459948320413436</v>
       </c>
       <c r="J11">
-        <v>0.007936507936507936</v>
+        <v>0.0234375</v>
       </c>
       <c r="K11">
-        <v>0.006944444444444444</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1266,31 +1284,31 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.1</v>
+        <v>0.2234432234432235</v>
       </c>
       <c r="C12">
-        <v>0.008849557522123894</v>
+        <v>0.06049822064056939</v>
       </c>
       <c r="D12">
-        <v>0.05</v>
+        <v>0.05961538461538462</v>
       </c>
       <c r="E12">
-        <v>0.04032258064516129</v>
+        <v>0.08478802992518704</v>
       </c>
       <c r="F12">
-        <v>0.04035874439461883</v>
+        <v>0.1015583019881784</v>
       </c>
       <c r="G12">
-        <v>0.01477832512315271</v>
+        <v>0.04596273291925466</v>
       </c>
       <c r="H12">
-        <v>0.03571428571428571</v>
+        <v>0.08237986270022883</v>
       </c>
       <c r="I12">
-        <v>0.01694915254237288</v>
+        <v>0.02842377260981912</v>
       </c>
       <c r="J12">
-        <v>0.007936507936507936</v>
+        <v>0.0234375</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1298,28 +1316,28 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.00909090909090909</v>
+        <v>0.06227106227106227</v>
       </c>
       <c r="C13">
-        <v>0.008849557522123894</v>
+        <v>0.07295373665480427</v>
       </c>
       <c r="D13">
-        <v>0.0625</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E13">
-        <v>0.04838709677419355</v>
+        <v>0.1113881961762261</v>
       </c>
       <c r="F13">
-        <v>0.0179372197309417</v>
+        <v>0.04513702310585706</v>
       </c>
       <c r="G13">
-        <v>0.03448275862068965</v>
+        <v>0.09316770186335403</v>
       </c>
       <c r="H13">
-        <v>0.01785714285714286</v>
+        <v>0.03890160183066362</v>
       </c>
       <c r="I13">
-        <v>0.008474576271186441</v>
+        <v>0.04392764857881137</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1327,25 +1345,25 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.01818181818181818</v>
+        <v>0.1208791208791209</v>
       </c>
       <c r="C14">
-        <v>0.01769911504424779</v>
+        <v>0.1138790035587189</v>
       </c>
       <c r="D14">
-        <v>0.0625</v>
+        <v>0.1355769230769231</v>
       </c>
       <c r="E14">
-        <v>0.008064516129032258</v>
+        <v>0.07231920199501247</v>
       </c>
       <c r="F14">
-        <v>0.02690582959641256</v>
+        <v>0.1295002686727566</v>
       </c>
       <c r="G14">
-        <v>0.01477832512315271</v>
+        <v>0.07453416149068323</v>
       </c>
       <c r="H14">
-        <v>0.02380952380952381</v>
+        <v>0.07093821510297482</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1353,22 +1371,22 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.04545454545454546</v>
+        <v>0.1465201465201465</v>
       </c>
       <c r="C15">
-        <v>0.03539823008849557</v>
+        <v>0.1281138790035587</v>
       </c>
       <c r="D15">
-        <v>0.075</v>
+        <v>0.04711538461538461</v>
       </c>
       <c r="E15">
-        <v>0.008064516129032258</v>
+        <v>0.1072319201995012</v>
       </c>
       <c r="F15">
-        <v>0.02690582959641256</v>
+        <v>0.046211714132187</v>
       </c>
       <c r="G15">
-        <v>0.004926108374384237</v>
+        <v>0.0422360248447205</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1376,19 +1394,19 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.06363636363636363</v>
+        <v>0.1648351648351648</v>
       </c>
       <c r="C16">
-        <v>0.02654867256637168</v>
+        <v>0.07473309608540925</v>
       </c>
       <c r="D16">
-        <v>0.0375</v>
+        <v>0.1221153846153846</v>
       </c>
       <c r="E16">
-        <v>0.01612903225806452</v>
+        <v>0.05735660847880299</v>
       </c>
       <c r="F16">
-        <v>0.02690582959641256</v>
+        <v>0.046211714132187</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1396,16 +1414,16 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.02727272727272727</v>
+        <v>0.08791208791208792</v>
       </c>
       <c r="C17">
-        <v>0.008849557522123894</v>
+        <v>0.1227758007117438</v>
       </c>
       <c r="D17">
-        <v>0.025</v>
+        <v>0.04519230769230769</v>
       </c>
       <c r="E17">
-        <v>0.008064516129032258</v>
+        <v>0.0457190357439734</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1413,13 +1431,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.04545454545454546</v>
+        <v>0.1465201465201465</v>
       </c>
       <c r="C18">
-        <v>0.01769911504424779</v>
+        <v>0.06761565836298933</v>
       </c>
       <c r="D18">
-        <v>0.0125</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1427,10 +1445,758 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.03636363636363636</v>
+        <v>0.1062271062271062</v>
       </c>
       <c r="C19">
-        <v>0.05309734513274336</v>
+        <v>0.03914590747330961</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.07326007326007326</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>273</v>
+      </c>
+      <c r="C2">
+        <v>68</v>
+      </c>
+      <c r="D2">
+        <v>57</v>
+      </c>
+      <c r="E2">
+        <v>55</v>
+      </c>
+      <c r="F2">
+        <v>74</v>
+      </c>
+      <c r="G2">
+        <v>38</v>
+      </c>
+      <c r="H2">
+        <v>44</v>
+      </c>
+      <c r="I2">
+        <v>36</v>
+      </c>
+      <c r="J2">
+        <v>34</v>
+      </c>
+      <c r="K2">
+        <v>43</v>
+      </c>
+      <c r="L2">
+        <v>61</v>
+      </c>
+      <c r="M2">
+        <v>17</v>
+      </c>
+      <c r="N2">
+        <v>33</v>
+      </c>
+      <c r="O2">
+        <v>40</v>
+      </c>
+      <c r="P2">
+        <v>45</v>
+      </c>
+      <c r="Q2">
+        <v>24</v>
+      </c>
+      <c r="R2">
+        <v>40</v>
+      </c>
+      <c r="S2">
+        <v>29</v>
+      </c>
+      <c r="T2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>562</v>
+      </c>
+      <c r="C3">
+        <v>89</v>
+      </c>
+      <c r="D3">
+        <v>54</v>
+      </c>
+      <c r="E3">
+        <v>108</v>
+      </c>
+      <c r="F3">
+        <v>63</v>
+      </c>
+      <c r="G3">
+        <v>64</v>
+      </c>
+      <c r="H3">
+        <v>56</v>
+      </c>
+      <c r="I3">
+        <v>51</v>
+      </c>
+      <c r="J3">
+        <v>56</v>
+      </c>
+      <c r="K3">
+        <v>124</v>
+      </c>
+      <c r="L3">
+        <v>34</v>
+      </c>
+      <c r="M3">
+        <v>41</v>
+      </c>
+      <c r="N3">
+        <v>64</v>
+      </c>
+      <c r="O3">
+        <v>72</v>
+      </c>
+      <c r="P3">
+        <v>42</v>
+      </c>
+      <c r="Q3">
+        <v>69</v>
+      </c>
+      <c r="R3">
+        <v>38</v>
+      </c>
+      <c r="S3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>1040</v>
+      </c>
+      <c r="C4">
+        <v>101</v>
+      </c>
+      <c r="D4">
+        <v>147</v>
+      </c>
+      <c r="E4">
+        <v>88</v>
+      </c>
+      <c r="F4">
+        <v>98</v>
+      </c>
+      <c r="G4">
+        <v>71</v>
+      </c>
+      <c r="H4">
+        <v>75</v>
+      </c>
+      <c r="I4">
+        <v>64</v>
+      </c>
+      <c r="J4">
+        <v>177</v>
+      </c>
+      <c r="K4">
+        <v>28</v>
+      </c>
+      <c r="L4">
+        <v>62</v>
+      </c>
+      <c r="M4">
+        <v>80</v>
+      </c>
+      <c r="N4">
+        <v>141</v>
+      </c>
+      <c r="O4">
+        <v>49</v>
+      </c>
+      <c r="P4">
+        <v>127</v>
+      </c>
+      <c r="Q4">
+        <v>47</v>
+      </c>
+      <c r="R4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>1203</v>
+      </c>
+      <c r="C5">
+        <v>247</v>
+      </c>
+      <c r="D5">
+        <v>116</v>
+      </c>
+      <c r="E5">
+        <v>94</v>
+      </c>
+      <c r="F5">
+        <v>76</v>
+      </c>
+      <c r="G5">
+        <v>89</v>
+      </c>
+      <c r="H5">
+        <v>80</v>
+      </c>
+      <c r="I5">
+        <v>194</v>
+      </c>
+      <c r="J5">
+        <v>36</v>
+      </c>
+      <c r="K5">
+        <v>67</v>
+      </c>
+      <c r="L5">
+        <v>102</v>
+      </c>
+      <c r="M5">
+        <v>134</v>
+      </c>
+      <c r="N5">
+        <v>87</v>
+      </c>
+      <c r="O5">
+        <v>129</v>
+      </c>
+      <c r="P5">
+        <v>69</v>
+      </c>
+      <c r="Q5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>1861</v>
+      </c>
+      <c r="C6">
+        <v>225</v>
+      </c>
+      <c r="D6">
+        <v>238</v>
+      </c>
+      <c r="E6">
+        <v>151</v>
+      </c>
+      <c r="F6">
+        <v>117</v>
+      </c>
+      <c r="G6">
+        <v>97</v>
+      </c>
+      <c r="H6">
+        <v>283</v>
+      </c>
+      <c r="I6">
+        <v>51</v>
+      </c>
+      <c r="J6">
+        <v>95</v>
+      </c>
+      <c r="K6">
+        <v>103</v>
+      </c>
+      <c r="L6">
+        <v>189</v>
+      </c>
+      <c r="M6">
+        <v>84</v>
+      </c>
+      <c r="N6">
+        <v>241</v>
+      </c>
+      <c r="O6">
+        <v>86</v>
+      </c>
+      <c r="P6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>805</v>
+      </c>
+      <c r="C7">
+        <v>158</v>
+      </c>
+      <c r="D7">
+        <v>82</v>
+      </c>
+      <c r="E7">
+        <v>70</v>
+      </c>
+      <c r="F7">
+        <v>59</v>
+      </c>
+      <c r="G7">
+        <v>127</v>
+      </c>
+      <c r="H7">
+        <v>37</v>
+      </c>
+      <c r="I7">
+        <v>38</v>
+      </c>
+      <c r="J7">
+        <v>60</v>
+      </c>
+      <c r="K7">
+        <v>84</v>
+      </c>
+      <c r="L7">
+        <v>37</v>
+      </c>
+      <c r="M7">
+        <v>75</v>
+      </c>
+      <c r="N7">
+        <v>60</v>
+      </c>
+      <c r="O7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>437</v>
+      </c>
+      <c r="C8">
+        <v>47</v>
+      </c>
+      <c r="D8">
+        <v>35</v>
+      </c>
+      <c r="E8">
+        <v>38</v>
+      </c>
+      <c r="F8">
+        <v>71</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>28</v>
+      </c>
+      <c r="I8">
+        <v>25</v>
+      </c>
+      <c r="J8">
+        <v>36</v>
+      </c>
+      <c r="K8">
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <v>36</v>
+      </c>
+      <c r="M8">
+        <v>17</v>
+      </c>
+      <c r="N8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>387</v>
+      </c>
+      <c r="C9">
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>38</v>
+      </c>
+      <c r="E9">
+        <v>64</v>
+      </c>
+      <c r="F9">
+        <v>21</v>
+      </c>
+      <c r="G9">
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <v>29</v>
+      </c>
+      <c r="I9">
+        <v>34</v>
+      </c>
+      <c r="J9">
+        <v>17</v>
+      </c>
+      <c r="K9">
+        <v>25</v>
+      </c>
+      <c r="L9">
+        <v>11</v>
+      </c>
+      <c r="M9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>640</v>
+      </c>
+      <c r="C10">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>99</v>
+      </c>
+      <c r="E10">
+        <v>34</v>
+      </c>
+      <c r="F10">
+        <v>42</v>
+      </c>
+      <c r="G10">
+        <v>38</v>
+      </c>
+      <c r="H10">
+        <v>44</v>
+      </c>
+      <c r="I10">
+        <v>21</v>
+      </c>
+      <c r="J10">
+        <v>46</v>
+      </c>
+      <c r="K10">
+        <v>15</v>
+      </c>
+      <c r="L10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>700</v>
+      </c>
+      <c r="C11">
+        <v>127</v>
+      </c>
+      <c r="D11">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>38</v>
+      </c>
+      <c r="F11">
+        <v>37</v>
+      </c>
+      <c r="G11">
+        <v>52</v>
+      </c>
+      <c r="H11">
+        <v>29</v>
+      </c>
+      <c r="I11">
+        <v>48</v>
+      </c>
+      <c r="J11">
+        <v>31</v>
+      </c>
+      <c r="K11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>1814</v>
+      </c>
+      <c r="C12">
+        <v>187</v>
+      </c>
+      <c r="D12">
+        <v>103</v>
+      </c>
+      <c r="E12">
+        <v>117</v>
+      </c>
+      <c r="F12">
+        <v>207</v>
+      </c>
+      <c r="G12">
+        <v>74</v>
+      </c>
+      <c r="H12">
+        <v>162</v>
+      </c>
+      <c r="I12">
+        <v>67</v>
+      </c>
+      <c r="J12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>241</v>
+      </c>
+      <c r="C13">
+        <v>33</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>27</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>22</v>
+      </c>
+      <c r="H13">
+        <v>14</v>
+      </c>
+      <c r="I13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>765</v>
+      </c>
+      <c r="C14">
+        <v>115</v>
+      </c>
+      <c r="D14">
+        <v>169</v>
+      </c>
+      <c r="E14">
+        <v>103</v>
+      </c>
+      <c r="F14">
+        <v>112</v>
+      </c>
+      <c r="G14">
+        <v>76</v>
+      </c>
+      <c r="H14">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>730</v>
+      </c>
+      <c r="C15">
+        <v>140</v>
+      </c>
+      <c r="D15">
+        <v>90</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>67</v>
+      </c>
+      <c r="G15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>910</v>
+      </c>
+      <c r="C16">
+        <v>91</v>
+      </c>
+      <c r="D16">
+        <v>131</v>
+      </c>
+      <c r="E16">
+        <v>94</v>
+      </c>
+      <c r="F16">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>461</v>
+      </c>
+      <c r="C17">
+        <v>70</v>
+      </c>
+      <c r="D17">
+        <v>42</v>
+      </c>
+      <c r="E17">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <v>720</v>
+      </c>
+      <c r="C18">
+        <v>68</v>
+      </c>
+      <c r="D18">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>671</v>
+      </c>
+      <c r="C19">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
